--- a/Journée 31 mars - Sensibilisation au handicap.xlsx
+++ b/Journée 31 mars - Sensibilisation au handicap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="140">
   <si>
     <t>JOURNEE DE SENSIBILISATION AU HANDICAP</t>
   </si>
@@ -90,12 +90,15 @@
     <t>Cécifoot</t>
   </si>
   <si>
+    <t>Biathlon (1er atelier à 10H15)</t>
+  </si>
+  <si>
+    <t>Plan pluie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biathlon </t>
   </si>
   <si>
-    <t>Plan pluie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qui organise? </t>
   </si>
   <si>
@@ -234,9 +237,21 @@
     <t>Salle de cours</t>
   </si>
   <si>
+    <t>MATIN</t>
+  </si>
+  <si>
+    <t>APRES-MIDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intervenant : Omar Bouyoucef (arrive à 9h30) : 06 84 17 39 66 </t>
+  </si>
+  <si>
     <t>Collège</t>
   </si>
   <si>
+    <t>Transport</t>
+  </si>
+  <si>
     <t>Accompagnateurs</t>
   </si>
   <si>
@@ -249,30 +264,48 @@
     <t>Lycée</t>
   </si>
   <si>
-    <t>Nb</t>
-  </si>
-  <si>
     <t>Antoine Pons</t>
   </si>
   <si>
-    <t>Edwige Lloanci (Principale)</t>
+    <t>mini-bus</t>
+  </si>
+  <si>
+    <t>M. Huguet</t>
+  </si>
+  <si>
+    <t>07 86 05 35 43</t>
   </si>
   <si>
     <t>Pardailhan</t>
   </si>
   <si>
+    <t>bus 20 places</t>
+  </si>
+  <si>
     <t>M. TALBOT, professeur d'EPS et Mme Mella CPE</t>
   </si>
   <si>
+    <t>06 79 71 16 57</t>
+  </si>
+  <si>
     <t>Magalie (Enseignante EPS)</t>
   </si>
   <si>
+    <t>06 22 42 70 05</t>
+  </si>
+  <si>
     <t>Lycée Déodat de Séverac</t>
   </si>
   <si>
+    <t>métro + bus</t>
+  </si>
+  <si>
     <t>Mme Mestre</t>
   </si>
   <si>
+    <t>06 84 79 97 08</t>
+  </si>
+  <si>
     <t>Claude Nougaro</t>
   </si>
   <si>
@@ -288,31 +321,43 @@
     <t>Max SERES, professeur d'EPS</t>
   </si>
   <si>
+    <t>06 42 74 11 20</t>
+  </si>
+  <si>
     <t>Collège Louis Pasteur Graulhet</t>
   </si>
   <si>
-    <t>Lycée Rive Gauche</t>
-  </si>
-  <si>
-    <t>2nde - Inès , jeune en situation de handicap</t>
+    <t>Mickael</t>
+  </si>
+  <si>
+    <t>Lycée Toulouse Lautrec</t>
+  </si>
+  <si>
+    <t>bus de ville</t>
+  </si>
+  <si>
+    <t>Stéphanie Martin</t>
+  </si>
+  <si>
+    <t>06 38 31 49 35</t>
   </si>
   <si>
     <t>G. Sand</t>
   </si>
   <si>
-    <t>Lycée Toulouse Lautrec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stéphanie / Yan </t>
+    <t>Yannick Lapeze</t>
+  </si>
+  <si>
+    <t>06 24 36 88 54</t>
   </si>
   <si>
     <t xml:space="preserve">Emile Zola </t>
   </si>
   <si>
-    <t>Prof EPS</t>
-  </si>
-  <si>
-    <t>Lycée Raymond Naves</t>
+    <t>Sébastien Menes</t>
+  </si>
+  <si>
+    <t>07 77 68 58 75</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -351,9 +396,18 @@
     <t>Marion Hertzog</t>
   </si>
   <si>
+    <t xml:space="preserve">Samuel Falcou </t>
+  </si>
+  <si>
     <t>Coline Van Leeuwen</t>
   </si>
   <si>
+    <t>Corentin</t>
+  </si>
+  <si>
+    <t>Adrien Beaud</t>
+  </si>
+  <si>
     <t>Loris Danjou</t>
   </si>
   <si>
@@ -363,26 +417,29 @@
     <t>Lou-Ann</t>
   </si>
   <si>
-    <t>Samuel Falcou (sauf de 15h à 16h)</t>
-  </si>
-  <si>
     <t>Arnaud</t>
   </si>
   <si>
-    <t>Adrien Beaud</t>
-  </si>
-  <si>
     <t>Inès</t>
   </si>
   <si>
-    <t>Inès Benabdillah</t>
+    <t>Maxime Laclau</t>
+  </si>
+  <si>
+    <t>François Zone</t>
+  </si>
+  <si>
+    <t>Jules P</t>
+  </si>
+  <si>
+    <t>Valentin Wasquel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -441,10 +498,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -495,14 +548,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5B5B"/>
-        <bgColor rgb="FFFF5B5B"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -521,12 +580,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -602,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -651,89 +704,115 @@
     <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="10" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="11" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,163 +1203,163 @@
         <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="J9" s="15"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="15"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="15"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="J13" s="17"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1312,14 +1391,14 @@
       <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>52</v>
+      <c r="B16" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>22</v>
@@ -1327,31 +1406,31 @@
       <c r="F16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>52</v>
+      <c r="B17" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>22</v>
@@ -1359,143 +1438,143 @@
       <c r="F17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="J18" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="F20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="16" t="s">
         <v>70</v>
       </c>
+      <c r="G21" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="H21" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1529,293 +1608,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="10.38"/>
+    <col customWidth="1" min="2" max="2" width="8.0"/>
+    <col customWidth="1" min="5" max="5" width="8.88"/>
+    <col customWidth="1" min="6" max="6" width="10.13"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
+    <col customWidth="1" min="10" max="10" width="9.38"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="C3" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="20">
+      <c r="E3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="26">
         <v>11.0</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24">
+      <c r="F4" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="29">
         <v>11.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21">
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="32">
         <v>10.0</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="30">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="32">
+        <v>30.0</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="21">
-        <v>30.0</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24">
+      <c r="H6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="29">
         <v>8.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="21">
+    <row r="7">
+      <c r="A7" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32">
         <v>10.0</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="F7" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="29">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="21">
+      <c r="C8" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="32">
         <v>20.0</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="21">
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="32">
         <v>25.0</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38">
+        <f>SUM(E4:E9)</f>
+        <v>106</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="39">
+        <f>SUM(J4:J9)</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30">
-        <f>SUM(D2:D17)</f>
-        <v>106</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30">
-        <f>SUM(H2:H17)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+  </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1824,6 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1834,196 +1918,228 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
-        <v>101</v>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34" t="s">
-        <v>102</v>
+      <c r="A2" s="41"/>
+      <c r="B2" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="35" t="s">
-        <v>103</v>
+      <c r="D2" s="44" t="s">
+        <v>118</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>105</v>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="37">
+      <c r="A4" s="48">
         <v>1.0</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="40"/>
+      <c r="B4" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="49"/>
     </row>
     <row r="5">
-      <c r="A5" s="37">
+      <c r="A5" s="48">
         <v>2.0</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="48">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="48">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="48">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="48">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="48">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="48">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="48">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="37">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="37">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="42">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="42">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="42">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="42">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="42">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="45"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14">
-      <c r="A14" s="42">
+      <c r="A14" s="48">
         <v>11.0</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="45"/>
+      <c r="B14" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15">
-      <c r="A15" s="42">
+      <c r="A15" s="48">
         <v>12.0</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="45"/>
+      <c r="B15" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="49"/>
     </row>
     <row r="16">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="A16" s="52">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="53"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="52">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="54">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2031,6 +2147,9 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>